--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c203_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c203_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3160" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -766,10 +778,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="2" t="s">
+      <c r="J22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -813,28 +825,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="2">
+      <c r="A24" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="2">
+      <c r="C24" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -859,28 +871,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="2">
+      <c r="C26" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="2">
+      <c r="D26" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="2">
+      <c r="I26" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1084,10 +1096,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1131,28 +1143,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1177,28 +1189,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1286,10 +1298,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1333,28 +1345,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1379,28 +1391,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1488,10 +1500,10 @@
       <c r="I47">
         <f>((C47-C46)^2+(D47- D46)^2)^.5</f>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K47" s="2" t="s">
+      <c r="J47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L47" t="n">
@@ -1535,28 +1547,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="2">
+      <c r="A49" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C49" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D49" t="s" s="2">
+      <c r="C49" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E49" t="s" s="2">
+      <c r="E49" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F49" t="s" s="2">
+      <c r="F49" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G49" t="s" s="2">
+      <c r="G49" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H49" t="s" s="2">
+      <c r="H49" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1581,28 +1593,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C51" t="s" s="2">
+      <c r="C51" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D51" t="s" s="2">
+      <c r="D51" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I51" t="s" s="2">
+      <c r="I51" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1719,10 +1731,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1766,28 +1778,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1812,28 +1824,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1921,10 +1933,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1968,28 +1980,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2014,28 +2026,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2123,10 +2135,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2170,28 +2182,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2216,28 +2228,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2441,10 +2453,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2488,28 +2500,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2534,28 +2546,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2759,10 +2771,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2806,28 +2818,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2852,28 +2864,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3048,10 +3060,10 @@
       <c r="I101">
         <f>((C101-C100)^2+(D101- D100)^2)^.5</f>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="J101" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L101" t="n">
@@ -3095,28 +3107,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="2">
+      <c r="A103" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C103" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D103" t="s" s="2">
+      <c r="C103" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D103" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3141,28 +3153,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C105" t="s" s="2">
+      <c r="C105" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D105" t="s" s="2">
+      <c r="D105" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I105" t="s" s="2">
+      <c r="I105" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3279,10 +3291,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3326,28 +3338,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3372,28 +3384,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3481,10 +3493,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="2" t="s">
+      <c r="J116" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3528,28 +3540,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="2">
+      <c r="C118" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3574,28 +3586,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3683,10 +3695,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3730,28 +3742,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3776,28 +3788,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3885,10 +3897,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3932,28 +3944,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3978,28 +3990,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4087,10 +4099,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4134,28 +4146,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4180,28 +4192,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4289,10 +4301,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4336,28 +4348,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4382,28 +4394,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4520,10 +4532,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4567,28 +4579,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4613,28 +4625,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4809,10 +4821,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4856,28 +4868,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4902,28 +4914,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5127,10 +5139,10 @@
       <c r="I173">
         <f>((C173-C172)^2+(D173- D172)^2)^.5</f>
       </c>
-      <c r="J173" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K173" s="2" t="s">
+      <c r="J173" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K173" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L173" t="n">
@@ -5174,28 +5186,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="2">
+      <c r="A175" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C175" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D175" t="s" s="2">
+      <c r="C175" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D175" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5220,28 +5232,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I177" t="s" s="2">
+      <c r="I177" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5358,10 +5370,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5405,28 +5417,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5451,28 +5463,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5647,10 +5659,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5694,28 +5706,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5740,28 +5752,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5878,10 +5890,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5925,28 +5937,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5971,28 +5983,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6080,10 +6092,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6127,28 +6139,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6173,28 +6185,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6253,10 +6265,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="2" t="s">
+      <c r="J212" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6300,28 +6312,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="2">
+      <c r="A214" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="2">
+      <c r="C214" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6346,28 +6358,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="2">
+      <c r="C216" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="2">
+      <c r="D216" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="2">
+      <c r="I216" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6426,10 +6438,10 @@
       <c r="I218">
         <f>((C218-C217)^2+(D218- D217)^2)^.5</f>
       </c>
-      <c r="J218" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K218" s="2" t="s">
+      <c r="J218" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K218" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L218" t="n">
@@ -6473,28 +6485,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="s" s="2">
+      <c r="A220" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C220" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D220" t="s" s="2">
+      <c r="C220" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D220" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6519,28 +6531,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C222" t="s" s="2">
+      <c r="C222" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D222" t="s" s="2">
+      <c r="D222" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I222" t="s" s="2">
+      <c r="I222" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6599,10 +6611,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6646,28 +6658,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6692,28 +6704,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6772,10 +6784,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6819,28 +6831,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6865,28 +6877,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6974,10 +6986,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7021,28 +7033,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7067,28 +7079,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7147,10 +7159,10 @@
       <c r="I243">
         <f>((C243-C242)^2+(D243- D242)^2)^.5</f>
       </c>
-      <c r="J243" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K243" s="2" t="s">
+      <c r="J243" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K243" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L243" t="n">
@@ -7194,28 +7206,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="s" s="2">
+      <c r="A245" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C245" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D245" t="s" s="2">
+      <c r="C245" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D245" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7240,28 +7252,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="B247" t="s" s="2">
+      <c r="B247" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C247" t="s" s="2">
+      <c r="C247" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D247" t="s" s="2">
+      <c r="D247" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E247" t="s" s="2">
+      <c r="E247" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F247" t="s" s="2">
+      <c r="F247" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G247" t="s" s="2">
+      <c r="G247" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H247" t="s" s="2">
+      <c r="H247" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I247" t="s" s="2">
+      <c r="I247" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7320,10 +7332,10 @@
       <c r="I249">
         <f>((C249-C248)^2+(D249- D248)^2)^.5</f>
       </c>
-      <c r="J249" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K249" s="2" t="s">
+      <c r="J249" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K249" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L249" t="n">
@@ -7367,28 +7379,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="s" s="2">
+      <c r="A251" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C251" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D251" t="s" s="2">
+      <c r="C251" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D251" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7413,28 +7425,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C253" t="s" s="2">
+      <c r="C253" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D253" t="s" s="2">
+      <c r="D253" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I253" t="s" s="2">
+      <c r="I253" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7493,10 +7505,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7540,28 +7552,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7586,28 +7598,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7666,10 +7678,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7713,28 +7725,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7759,28 +7771,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7839,10 +7851,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7886,28 +7898,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7932,28 +7944,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8041,10 +8053,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="2" t="s">
+      <c r="J274" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8088,28 +8100,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="2">
+      <c r="A276" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="2">
+      <c r="C276" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8134,28 +8146,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="2">
+      <c r="C278" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="2">
+      <c r="D278" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="2">
+      <c r="I278" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8214,10 +8226,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="2" t="s">
+      <c r="J280" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8261,28 +8273,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="2">
+      <c r="A282" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="2">
+      <c r="C282" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8307,28 +8319,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="2">
+      <c r="C284" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="2">
+      <c r="D284" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="2">
+      <c r="I284" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8387,10 +8399,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
